--- a/biology/Zoologie/Agromyza/Agromyza.xlsx
+++ b/biology/Zoologie/Agromyza/Agromyza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agromyza est un genre de d'insectes diptères de la famille des Agromyzidae.
 Les adultes de ces mouches peuvent être identifiés par la présence de râpes stridulatoires sur les deux premiers tergites abdominaux tant chez le  mâle que chez la femelle. Une autre caractéristique utile est la morphologie des haltères qui sont généralement blanches ou jaunes, parfois plus sombres chez certaines espèces tropicales.
@@ -514,11 +526,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (12 sept. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (12 sept. 2013) :
 Agromyza flava
-Selon ITIS      (12 sept. 2013)[2] :
+Selon ITIS      (12 sept. 2013) :
 Agromyza albertensis Sehgal, 1968
 Agromyza albipennis Meigen, 1830
 Agromyza albitarsis Meigen, 1830
@@ -569,11 +583,11 @@
 Agromyza varifrons Coquillett, 1902
 Agromyza virginiensis Spencer, 1977
 Agromyza vockerothi Spencer, 1969
-Selon NCBI  (12 sept. 2013)[3] :
+Selon NCBI  (12 sept. 2013) :
 Agromyza ambrosivora
 Agromyza frontella
 Agromyza pseudoreptans
-Selon  Animal Diversity Web                                (12 sept. 2013)[4] :
+Selon  Animal Diversity Web                                (12 sept. 2013) :
 Agromyza abutilonis
 Agromyza abyssinica
 Agromyza alandensis
